--- a/grupos/4ARHV - Estadisticos 20242.xlsx
+++ b/grupos/4ARHV - Estadisticos 20242.xlsx
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>9</v>
@@ -765,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -807,7 +807,7 @@
         <v>8</v>
       </c>
       <c r="Y5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z5">
         <v>10</v>
@@ -854,7 +854,7 @@
         <v>7</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>7</v>
       </c>
       <c r="Y6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z6">
         <v>10</v>
@@ -943,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L7">
         <v>10</v>
@@ -1032,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L8">
         <v>8</v>
@@ -1074,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="Y8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z8">
         <v>8</v>
@@ -1121,7 +1121,7 @@
         <v>7</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L9">
         <v>6</v>
@@ -1210,7 +1210,7 @@
         <v>7</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -1252,7 +1252,7 @@
         <v>8</v>
       </c>
       <c r="Y10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z10">
         <v>10</v>
@@ -1299,7 +1299,7 @@
         <v>5</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L11">
         <v>8</v>
@@ -1388,7 +1388,7 @@
         <v>7</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L12">
         <v>10</v>
@@ -1477,7 +1477,7 @@
         <v>7</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L13">
         <v>9</v>
@@ -1566,7 +1566,7 @@
         <v>7</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L14">
         <v>9</v>
@@ -1655,7 +1655,7 @@
         <v>6</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L15">
         <v>9</v>
@@ -1744,7 +1744,7 @@
         <v>7</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L16">
         <v>6</v>
@@ -1833,7 +1833,7 @@
         <v>8</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L17">
         <v>10</v>
@@ -1922,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L18">
         <v>9</v>
@@ -1964,7 +1964,7 @@
         <v>5</v>
       </c>
       <c r="Y18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z18">
         <v>9</v>
@@ -2115,13 +2115,13 @@
         <v>100</v>
       </c>
       <c r="K4">
-        <v>95.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="M4">
         <v>100</v>
       </c>
       <c r="R4">
-        <v>95.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="T4">
         <v>100</v>
@@ -2159,7 +2159,7 @@
         <v>86.2</v>
       </c>
       <c r="K5">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -2180,7 +2180,7 @@
         <v>86.2</v>
       </c>
       <c r="R5">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="S5">
         <v>100</v>
@@ -2295,7 +2295,7 @@
         <v>96.59999999999999</v>
       </c>
       <c r="K7">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -2316,7 +2316,7 @@
         <v>96.59999999999999</v>
       </c>
       <c r="R7">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="S7">
         <v>100</v>
@@ -2363,7 +2363,7 @@
         <v>93.09999999999999</v>
       </c>
       <c r="K8">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -2384,7 +2384,7 @@
         <v>93.09999999999999</v>
       </c>
       <c r="R8">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="S8">
         <v>100</v>
@@ -2431,7 +2431,7 @@
         <v>82.8</v>
       </c>
       <c r="K9">
-        <v>91.8</v>
+        <v>94.8</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -2452,7 +2452,7 @@
         <v>82.8</v>
       </c>
       <c r="R9">
-        <v>91.8</v>
+        <v>94.8</v>
       </c>
       <c r="S9">
         <v>100</v>
@@ -2499,7 +2499,7 @@
         <v>89.7</v>
       </c>
       <c r="K10">
-        <v>95.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="L10">
         <v>100</v>
@@ -2520,7 +2520,7 @@
         <v>89.7</v>
       </c>
       <c r="R10">
-        <v>95.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="S10">
         <v>100</v>
@@ -2567,7 +2567,7 @@
         <v>82.8</v>
       </c>
       <c r="K11">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="L11">
         <v>100</v>
@@ -2588,7 +2588,7 @@
         <v>82.8</v>
       </c>
       <c r="R11">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="S11">
         <v>100</v>
@@ -2635,7 +2635,7 @@
         <v>93.09999999999999</v>
       </c>
       <c r="K12">
-        <v>95.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="L12">
         <v>100</v>
@@ -2656,7 +2656,7 @@
         <v>93.09999999999999</v>
       </c>
       <c r="R12">
-        <v>95.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="S12">
         <v>100</v>
@@ -2703,7 +2703,7 @@
         <v>86.2</v>
       </c>
       <c r="K13">
-        <v>95.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="L13">
         <v>100</v>
@@ -2724,7 +2724,7 @@
         <v>86.2</v>
       </c>
       <c r="R13">
-        <v>95.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="S13">
         <v>100</v>
@@ -2771,7 +2771,7 @@
         <v>96.59999999999999</v>
       </c>
       <c r="K14">
-        <v>91.8</v>
+        <v>92.8</v>
       </c>
       <c r="L14">
         <v>100</v>
@@ -2792,7 +2792,7 @@
         <v>96.59999999999999</v>
       </c>
       <c r="R14">
-        <v>91.8</v>
+        <v>92.8</v>
       </c>
       <c r="S14">
         <v>100</v>
@@ -2839,7 +2839,7 @@
         <v>96.59999999999999</v>
       </c>
       <c r="K15">
-        <v>95.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="L15">
         <v>100</v>
@@ -2860,7 +2860,7 @@
         <v>96.59999999999999</v>
       </c>
       <c r="R15">
-        <v>95.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="S15">
         <v>100</v>
@@ -2907,7 +2907,7 @@
         <v>89.7</v>
       </c>
       <c r="K16">
-        <v>95.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="L16">
         <v>100</v>
@@ -2928,7 +2928,7 @@
         <v>89.7</v>
       </c>
       <c r="R16">
-        <v>95.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="S16">
         <v>100</v>
@@ -2975,7 +2975,7 @@
         <v>100</v>
       </c>
       <c r="K17">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="L17">
         <v>100</v>
@@ -2996,7 +2996,7 @@
         <v>100</v>
       </c>
       <c r="R17">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="S17">
         <v>100</v>
@@ -3043,7 +3043,7 @@
         <v>93.09999999999999</v>
       </c>
       <c r="K18">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L18">
         <v>100</v>
@@ -3064,7 +3064,7 @@
         <v>93.09999999999999</v>
       </c>
       <c r="R18">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S18">
         <v>100</v>
@@ -3221,7 +3221,7 @@
         <v>6.7</v>
       </c>
       <c r="H4">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I4">
         <v>0</v>
